--- a/togoScrap/static/scrapper/Regions.xlsx
+++ b/togoScrap/static/scrapper/Regions.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kkr crp\Documents\Projects\james-scrapper-1\togoScrap\scrapper\cruise_line_files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kkr crp\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B7F0E4A-A5CB-44AF-A0F1-F0F1190494C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12E7545A-CA4B-4C91-BF23-ECA15E85C92E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,16 +28,16 @@
     <t>Region</t>
   </si>
   <si>
-    <t>Norway</t>
+    <t>Lisbon, Portugal</t>
   </si>
   <si>
-    <t>Northern Europe</t>
+    <t>Europe</t>
   </si>
   <si>
-    <t>port</t>
+    <t>Portugal</t>
   </si>
   <si>
-    <t>Lisbon, Portugal</t>
+    <t>Port</t>
   </si>
 </sst>
 </file>
@@ -601,7 +601,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
@@ -618,18 +618,18 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
